--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Estadistica Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDD822-E56B-4DD2-B073-418BC04C43F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6942A-BAB9-46A4-992C-8783D24B6263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-1032" yWindow="420" windowWidth="21264" windowHeight="16344" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,34 +31,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
-  <si>
-    <t>Agropecuaria</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>N. Proy.</t>
   </si>
   <si>
-    <t>educacion</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Monto de Inversion</t>
-  </si>
-  <si>
-    <t>Proyectos Vianbles PMI 2020-2022 GORE por funcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proyectos vianbles Banco de Inversiones al 2020 por función </t>
+    <t>PROYECTOS VIABLES BANCO DE INVERSIONES AL 2020 POR FUNCIÓN</t>
+  </si>
+  <si>
+    <t>PROYECTOS VIABLES PMI 2020-2022 GORE POR FUNCIÓN</t>
+  </si>
+  <si>
+    <t>MONTO DE INVERSIÓN</t>
+  </si>
+  <si>
+    <t>ADMINISTRACION Y PLANEAMIENTO</t>
+  </si>
+  <si>
+    <t>AGRARIA</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA</t>
+  </si>
+  <si>
+    <t>AMBIENTE</t>
+  </si>
+  <si>
+    <t>ASISTENCIA Y PREVISION SOCIAL</t>
+  </si>
+  <si>
+    <t>CULTURA Y DEPORTE</t>
+  </si>
+  <si>
+    <t>EDUCACIÓN</t>
+  </si>
+  <si>
+    <t>EDUCACION Y CULTURA</t>
+  </si>
+  <si>
+    <t>ENERGÍA</t>
+  </si>
+  <si>
+    <t>ENERGIA Y RECURSOS MINERALES</t>
+  </si>
+  <si>
+    <t>INDUSTRIA, COMERCIO Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>ORDEN PÚBLICO Y SEGURIDAD</t>
+  </si>
+  <si>
+    <t>PLANEAMIENTO, GESTIÓN Y RESERVA DE CONTINGENCIA</t>
+  </si>
+  <si>
+    <t>PROTECCIÓN SOCIAL</t>
+  </si>
+  <si>
+    <t>SALUD</t>
+  </si>
+  <si>
+    <t>SALUD Y SANEAMIENTO</t>
+  </si>
+  <si>
+    <t>TRANSPORTE</t>
+  </si>
+  <si>
+    <t>TURISMO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +117,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,19 +161,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,40 +231,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte"/>
-      <sheetName val="DATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ADMINISTRACION Y PLANEAMIENTO</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1</v>
-          </cell>
-          <cell r="C6">
-            <v>201568.42</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>AGRARIA</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,110 +530,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F51E77-327E-4E07-9E96-5CEB8AE7D025}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>201568.42</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>6853016.25</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="12">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>51592880.249999985</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>44968149.989999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>103521389.44000001</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>103521389.44000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" s="8">
+        <v>98767</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9276356.7599999998</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>9276356.7599999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8">
+        <v>295280842.25999993</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8">
+        <v>283307108.25999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4377552.4000000004</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1021964.05</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5113613</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C13" s="8">
+        <v>2837932</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>35249904</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="12">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>35249904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="12">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8">
+        <v>90477487.989999995</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="12">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>74400166.099999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>19032429.23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>19032429.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>590163608.28999996</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="12">
+        <v>8</v>
+      </c>
+      <c r="G17" s="8">
+        <v>578610721.28999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="12">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8">
+        <v>10285383</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="12">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>343907641.22999996</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="12">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G19" s="8">
+        <v>320104957.48999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="12">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
-        <f>[1]Reporte!$A$4:$M$4</f>
-        <v>ADMINISTRACION Y PLANEAMIENTO</v>
-      </c>
-      <c r="B3">
-        <f>[1]Reporte!$B$6</f>
+      <c r="C20" s="8">
+        <v>2966681.12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
-        <f>[1]Reporte!$C$6</f>
-        <v>201568.42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]Reporte!$A$7:$M$7</f>
-        <v>AGRARIA</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
-        <v>150000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B3:B5)</f>
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <f>SUM(C3:C5)</f>
-        <v>351568.42000000004</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <f>SUM(F3:F5)</f>
+      <c r="G20" s="8">
+        <v>2966681.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3">
-        <f>SUM(G3:G5)</f>
-        <v>950000</v>
+      <c r="B21" s="13">
+        <f>SUM(B3:B20)</f>
+        <v>138</v>
+      </c>
+      <c r="C21" s="10">
+        <f>SUM(C3:C20)</f>
+        <v>1572259016.6899998</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="13">
+        <f>SUM(F4:F20)</f>
+        <v>45</v>
+      </c>
+      <c r="G21" s="10">
+        <f>SUM(G4:G20)</f>
+        <v>1471437863.6799998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA6942A-BAB9-46A4-992C-8783D24B6263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352A3EEE-8915-412C-806C-881EFB5BA51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1032" yWindow="420" windowWidth="21264" windowHeight="16344" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>N. Proy.</t>
   </si>
@@ -103,13 +104,31 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monto viable</t>
+  </si>
+  <si>
+    <t>FUNCIÓN</t>
+  </si>
+  <si>
+    <t>MONTO POR AÑO</t>
+  </si>
+  <si>
+    <t>TOTAL GENERAL</t>
+  </si>
+  <si>
+    <t>NUMERO DE PROYECTOS POR AÑO</t>
+  </si>
+  <si>
+    <t>TOTAL N. Proy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +151,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +186,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -176,11 +264,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,6 +495,69 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F51E77-327E-4E07-9E96-5CEB8AE7D025}">
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,4 +1269,1001 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F3E05F-5694-4388-8299-1D7B635039D5}">
+  <dimension ref="A2:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="32">
+        <v>2003</v>
+      </c>
+      <c r="C4" s="33">
+        <v>2004</v>
+      </c>
+      <c r="D4" s="33">
+        <v>2005</v>
+      </c>
+      <c r="E4" s="33">
+        <v>2006</v>
+      </c>
+      <c r="F4" s="33">
+        <v>2007</v>
+      </c>
+      <c r="G4" s="33">
+        <v>2014</v>
+      </c>
+      <c r="H4" s="33">
+        <v>2016</v>
+      </c>
+      <c r="I4" s="33">
+        <v>2017</v>
+      </c>
+      <c r="J4" s="33">
+        <v>2018</v>
+      </c>
+      <c r="K4" s="33">
+        <v>2019</v>
+      </c>
+      <c r="L4" s="40">
+        <v>2020</v>
+      </c>
+      <c r="M4" s="34">
+        <v>2003</v>
+      </c>
+      <c r="N4" s="35">
+        <v>2004</v>
+      </c>
+      <c r="O4" s="35">
+        <v>2005</v>
+      </c>
+      <c r="P4" s="35">
+        <v>2006</v>
+      </c>
+      <c r="Q4" s="35">
+        <v>2007</v>
+      </c>
+      <c r="R4" s="35">
+        <v>2014</v>
+      </c>
+      <c r="S4" s="35">
+        <v>2016</v>
+      </c>
+      <c r="T4" s="35">
+        <v>2017</v>
+      </c>
+      <c r="U4" s="35">
+        <v>2018</v>
+      </c>
+      <c r="V4" s="35">
+        <v>2019</v>
+      </c>
+      <c r="W4" s="40">
+        <v>2020</v>
+      </c>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="39"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="8">
+        <v>201568.42</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>201568.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="8">
+        <v>4157731.25</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1300097</v>
+      </c>
+      <c r="P6" s="8">
+        <v>950440</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>444748</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>6853016.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="41">
+        <v>1</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8">
+        <v>5230546.3499999996</v>
+      </c>
+      <c r="U7" s="8">
+        <v>39369385.039999992</v>
+      </c>
+      <c r="V7" s="8"/>
+      <c r="W7" s="43">
+        <v>6992948.8600000003</v>
+      </c>
+      <c r="X7" s="16">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>51592880.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="41">
+        <v>2</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
+        <v>2566266</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8">
+        <v>31509172.399999999</v>
+      </c>
+      <c r="W8" s="43">
+        <v>69445951.040000007</v>
+      </c>
+      <c r="X8" s="16">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>103521389.44000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8">
+        <v>98767</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>98767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8">
+        <v>9276356.7599999998</v>
+      </c>
+      <c r="W10" s="43"/>
+      <c r="X10" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>9276356.7599999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
+        <v>6</v>
+      </c>
+      <c r="J11" s="12">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>2</v>
+      </c>
+      <c r="L11" s="41">
+        <v>4</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8">
+        <v>106307280</v>
+      </c>
+      <c r="U11" s="8">
+        <v>41767053.5</v>
+      </c>
+      <c r="V11" s="8">
+        <v>41186603.280000001</v>
+      </c>
+      <c r="W11" s="43">
+        <v>106019905.48</v>
+      </c>
+      <c r="X11" s="16">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>295280842.25999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="8">
+        <v>3013781.4</v>
+      </c>
+      <c r="O12" s="8">
+        <v>992780</v>
+      </c>
+      <c r="P12" s="8">
+        <v>370991</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="43"/>
+      <c r="X12" s="16">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>4377552.4000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8">
+        <v>1021964.05</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>1021964.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20">
+        <v>2</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="24">
+        <v>261620</v>
+      </c>
+      <c r="N14" s="8">
+        <v>2997118</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1735875</v>
+      </c>
+      <c r="P14" s="8">
+        <v>119000</v>
+      </c>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="16">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>5113613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="12">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="8">
+        <v>2837932</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="16">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>2837932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <v>2</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8">
+        <v>35249904</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="16">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>35249904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <v>5</v>
+      </c>
+      <c r="L17" s="41">
+        <v>3</v>
+      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8">
+        <v>5526977</v>
+      </c>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8">
+        <v>70967103.719999999</v>
+      </c>
+      <c r="W17" s="43">
+        <v>13983407.27</v>
+      </c>
+      <c r="X17" s="16">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="25">
+        <v>90477487.989999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="41">
+        <v>1</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="43">
+        <v>19032429.23</v>
+      </c>
+      <c r="X18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>19032429.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12">
+        <v>2</v>
+      </c>
+      <c r="I19" s="12">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="41"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8">
+        <v>8122423</v>
+      </c>
+      <c r="T19" s="8">
+        <v>427875348</v>
+      </c>
+      <c r="U19" s="8">
+        <v>125584820.59999999</v>
+      </c>
+      <c r="V19" s="8">
+        <v>28581016.690000001</v>
+      </c>
+      <c r="W19" s="43"/>
+      <c r="X19" s="16">
+        <v>11</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>590163608.29000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>21</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="24">
+        <v>997855</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1928925</v>
+      </c>
+      <c r="O20" s="8">
+        <v>191800</v>
+      </c>
+      <c r="P20" s="8">
+        <v>5574866</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1591937</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="16">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>10285383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="12">
+        <v>5</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>4</v>
+      </c>
+      <c r="L21" s="41">
+        <v>1</v>
+      </c>
+      <c r="M21" s="24"/>
+      <c r="N21" s="8">
+        <v>3343961.19</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2524035</v>
+      </c>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8">
+        <v>50614325.43</v>
+      </c>
+      <c r="V21" s="8">
+        <v>281119660.53000003</v>
+      </c>
+      <c r="W21" s="43">
+        <v>6305659.0800000001</v>
+      </c>
+      <c r="X21" s="16">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>343907641.22999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+      <c r="L22" s="41"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8">
+        <v>2966681.12</v>
+      </c>
+      <c r="W22" s="43"/>
+      <c r="X22" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>2966681.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="27">
+        <v>3</v>
+      </c>
+      <c r="C23" s="28">
+        <v>36</v>
+      </c>
+      <c r="D23" s="28">
+        <v>12</v>
+      </c>
+      <c r="E23" s="28">
+        <v>26</v>
+      </c>
+      <c r="F23" s="28">
+        <v>2</v>
+      </c>
+      <c r="G23" s="28">
+        <v>1</v>
+      </c>
+      <c r="H23" s="28">
+        <v>2</v>
+      </c>
+      <c r="I23" s="28">
+        <v>17</v>
+      </c>
+      <c r="J23" s="28">
+        <v>12</v>
+      </c>
+      <c r="K23" s="28">
+        <v>15</v>
+      </c>
+      <c r="L23" s="42">
+        <v>12</v>
+      </c>
+      <c r="M23" s="29">
+        <v>1259475</v>
+      </c>
+      <c r="N23" s="30">
+        <v>18481017.260000002</v>
+      </c>
+      <c r="O23" s="30">
+        <v>6843354</v>
+      </c>
+      <c r="P23" s="30">
+        <v>7015297</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>2036685</v>
+      </c>
+      <c r="R23" s="30">
+        <v>1021964.05</v>
+      </c>
+      <c r="S23" s="30">
+        <v>8122423</v>
+      </c>
+      <c r="T23" s="30">
+        <v>582756321.35000002</v>
+      </c>
+      <c r="U23" s="30">
+        <v>257335584.56999999</v>
+      </c>
+      <c r="V23" s="30">
+        <v>465606594.5</v>
+      </c>
+      <c r="W23" s="44">
+        <v>221780300.95999998</v>
+      </c>
+      <c r="X23" s="26">
+        <v>138</v>
+      </c>
+      <c r="Y23" s="31">
+        <v>1572259016.6900001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352A3EEE-8915-412C-806C-881EFB5BA51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044A788-AEF0-4148-A3A5-3FC4912D7D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="COmparativo" sheetId="1" r:id="rId1"/>
+    <sheet name="Detallado por Año" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -499,26 +499,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -536,18 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,6 +528,36 @@
     <xf numFmtId="4" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1296,117 +1296,117 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="21" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="36" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="26">
         <v>2003</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="27">
         <v>2004</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="27">
         <v>2005</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="27">
         <v>2006</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="27">
         <v>2007</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="27">
         <v>2014</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="27">
         <v>2016</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="27">
         <v>2017</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="27">
         <v>2018</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="27">
         <v>2019</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="30">
         <v>2020</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="28">
         <v>2003</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="29">
         <v>2004</v>
       </c>
-      <c r="O4" s="35">
+      <c r="O4" s="29">
         <v>2005</v>
       </c>
-      <c r="P4" s="35">
+      <c r="P4" s="29">
         <v>2006</v>
       </c>
-      <c r="Q4" s="35">
+      <c r="Q4" s="29">
         <v>2007</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="29">
         <v>2014</v>
       </c>
-      <c r="S4" s="35">
+      <c r="S4" s="29">
         <v>2016</v>
       </c>
-      <c r="T4" s="35">
+      <c r="T4" s="29">
         <v>2017</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="29">
         <v>2018</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="29">
         <v>2019</v>
       </c>
-      <c r="W4" s="40">
+      <c r="W4" s="30">
         <v>2020</v>
       </c>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="39"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="45"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="12">
         <v>1</v>
       </c>
@@ -1418,8 +1418,8 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="8">
         <v>201568.42</v>
       </c>
@@ -1431,11 +1431,11 @@
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="43"/>
+      <c r="W5" s="33"/>
       <c r="X5" s="16">
         <v>1</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5" s="19">
         <v>201568.42</v>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="12">
         <v>9</v>
       </c>
@@ -1461,8 +1461,8 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="8">
         <v>4157731.25</v>
       </c>
@@ -1480,11 +1480,11 @@
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="43"/>
+      <c r="W6" s="33"/>
       <c r="X6" s="16">
         <v>15</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Y6" s="19">
         <v>6853016.25</v>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -1506,10 +1506,10 @@
         <v>5</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="L7" s="41">
-        <v>1</v>
-      </c>
-      <c r="M7" s="24"/>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -1523,13 +1523,13 @@
         <v>39369385.039999992</v>
       </c>
       <c r="V7" s="8"/>
-      <c r="W7" s="43">
+      <c r="W7" s="33">
         <v>6992948.8600000003</v>
       </c>
       <c r="X7" s="16">
         <v>9</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7" s="19">
         <v>51592880.25</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1551,10 +1551,10 @@
       <c r="K8" s="12">
         <v>1</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="31">
         <v>2</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="M8" s="18"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -1568,13 +1568,13 @@
       <c r="V8" s="8">
         <v>31509172.399999999</v>
       </c>
-      <c r="W8" s="43">
+      <c r="W8" s="33">
         <v>69445951.040000007</v>
       </c>
       <c r="X8" s="16">
         <v>4</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Y8" s="19">
         <v>103521389.44000001</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12">
         <v>1</v>
@@ -1594,8 +1594,8 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="18"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8">
         <v>98767</v>
@@ -1607,11 +1607,11 @@
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="43"/>
+      <c r="W9" s="33"/>
       <c r="X9" s="16">
         <v>1</v>
       </c>
-      <c r="Y9" s="25">
+      <c r="Y9" s="19">
         <v>98767</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -1631,8 +1631,8 @@
       <c r="K10" s="12">
         <v>1</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="18"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
@@ -1644,11 +1644,11 @@
       <c r="V10" s="8">
         <v>9276356.7599999998</v>
       </c>
-      <c r="W10" s="43"/>
+      <c r="W10" s="33"/>
       <c r="X10" s="16">
         <v>1</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Y10" s="19">
         <v>9276356.7599999998</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1672,10 +1672,10 @@
       <c r="K11" s="12">
         <v>2</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="31">
         <v>4</v>
       </c>
-      <c r="M11" s="24"/>
+      <c r="M11" s="18"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
@@ -1691,13 +1691,13 @@
       <c r="V11" s="8">
         <v>41186603.280000001</v>
       </c>
-      <c r="W11" s="43">
+      <c r="W11" s="33">
         <v>106019905.48</v>
       </c>
       <c r="X11" s="16">
         <v>14</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Y11" s="19">
         <v>295280842.25999993</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="12">
         <v>11</v>
       </c>
@@ -1721,8 +1721,8 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="8">
         <v>3013781.4</v>
       </c>
@@ -1738,11 +1738,11 @@
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="43"/>
+      <c r="W12" s="33"/>
       <c r="X12" s="16">
         <v>15</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Y12" s="19">
         <v>4377552.4000000004</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -1762,8 +1762,8 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="24"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="18"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
@@ -1775,11 +1775,11 @@
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="43"/>
+      <c r="W13" s="33"/>
       <c r="X13" s="16">
         <v>1</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Y13" s="19">
         <v>1021964.05</v>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="17">
         <v>2</v>
       </c>
       <c r="C14" s="12">
@@ -1805,8 +1805,8 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="24">
+      <c r="L14" s="31"/>
+      <c r="M14" s="18">
         <v>261620</v>
       </c>
       <c r="N14" s="8">
@@ -1824,11 +1824,11 @@
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="43"/>
+      <c r="W14" s="33"/>
       <c r="X14" s="16">
         <v>10</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Y14" s="19">
         <v>5113613</v>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="12">
         <v>4</v>
       </c>
@@ -1848,8 +1848,8 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="24"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="8">
         <v>2837932</v>
       </c>
@@ -1861,11 +1861,11 @@
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="43"/>
+      <c r="W15" s="33"/>
       <c r="X15" s="16">
         <v>4</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Y15" s="19">
         <v>2837932</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -1885,8 +1885,8 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -1898,11 +1898,11 @@
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="43"/>
+      <c r="W16" s="33"/>
       <c r="X16" s="16">
         <v>2</v>
       </c>
-      <c r="Y16" s="25">
+      <c r="Y16" s="19">
         <v>35249904</v>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -1924,10 +1924,10 @@
       <c r="K17" s="12">
         <v>5</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="31">
         <v>3</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="18"/>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -1941,13 +1941,13 @@
       <c r="V17" s="8">
         <v>70967103.719999999</v>
       </c>
-      <c r="W17" s="43">
+      <c r="W17" s="33">
         <v>13983407.27</v>
       </c>
       <c r="X17" s="16">
         <v>9</v>
       </c>
-      <c r="Y17" s="25">
+      <c r="Y17" s="19">
         <v>90477487.989999995</v>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -1965,10 +1965,10 @@
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="41">
-        <v>1</v>
-      </c>
-      <c r="M18" s="24"/>
+      <c r="L18" s="31">
+        <v>1</v>
+      </c>
+      <c r="M18" s="18"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -1978,13 +1978,13 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="43">
+      <c r="W18" s="33">
         <v>19032429.23</v>
       </c>
       <c r="X18" s="16">
         <v>1</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Y18" s="19">
         <v>19032429.23</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2010,8 +2010,8 @@
       <c r="K19" s="12">
         <v>1</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="18"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
@@ -2029,11 +2029,11 @@
       <c r="V19" s="8">
         <v>28581016.690000001</v>
       </c>
-      <c r="W19" s="43"/>
+      <c r="W19" s="33"/>
       <c r="X19" s="16">
         <v>11</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Y19" s="19">
         <v>590163608.29000008</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="17">
         <v>1</v>
       </c>
       <c r="C20" s="12">
@@ -2061,8 +2061,8 @@
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="24">
+      <c r="L20" s="31"/>
+      <c r="M20" s="18">
         <v>997855</v>
       </c>
       <c r="N20" s="8">
@@ -2082,11 +2082,11 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="43"/>
+      <c r="W20" s="33"/>
       <c r="X20" s="16">
         <v>27</v>
       </c>
-      <c r="Y20" s="25">
+      <c r="Y20" s="19">
         <v>10285383</v>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="12">
         <v>5</v>
       </c>
@@ -2112,10 +2112,10 @@
       <c r="K21" s="12">
         <v>4</v>
       </c>
-      <c r="L21" s="41">
-        <v>1</v>
-      </c>
-      <c r="M21" s="24"/>
+      <c r="L21" s="31">
+        <v>1</v>
+      </c>
+      <c r="M21" s="18"/>
       <c r="N21" s="8">
         <v>3343961.19</v>
       </c>
@@ -2133,13 +2133,13 @@
       <c r="V21" s="8">
         <v>281119660.53000003</v>
       </c>
-      <c r="W21" s="43">
+      <c r="W21" s="33">
         <v>6305659.0800000001</v>
       </c>
       <c r="X21" s="16">
         <v>12</v>
       </c>
-      <c r="Y21" s="25">
+      <c r="Y21" s="19">
         <v>343907641.22999996</v>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -2159,8 +2159,8 @@
       <c r="K22" s="12">
         <v>1</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="24"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -2172,88 +2172,88 @@
       <c r="V22" s="8">
         <v>2966681.12</v>
       </c>
-      <c r="W22" s="43"/>
+      <c r="W22" s="33"/>
       <c r="X22" s="16">
         <v>1</v>
       </c>
-      <c r="Y22" s="25">
+      <c r="Y22" s="19">
         <v>2966681.12</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="21">
         <v>3</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="22">
         <v>36</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="22">
         <v>12</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="22">
         <v>26</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="22">
         <v>2</v>
       </c>
-      <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28">
+      <c r="G23" s="22">
+        <v>1</v>
+      </c>
+      <c r="H23" s="22">
         <v>2</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="22">
         <v>17</v>
       </c>
-      <c r="J23" s="28">
+      <c r="J23" s="22">
         <v>12</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="22">
         <v>15</v>
       </c>
-      <c r="L23" s="42">
+      <c r="L23" s="32">
         <v>12</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="23">
         <v>1259475</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="24">
         <v>18481017.260000002</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="24">
         <v>6843354</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="24">
         <v>7015297</v>
       </c>
-      <c r="Q23" s="30">
+      <c r="Q23" s="24">
         <v>2036685</v>
       </c>
-      <c r="R23" s="30">
+      <c r="R23" s="24">
         <v>1021964.05</v>
       </c>
-      <c r="S23" s="30">
+      <c r="S23" s="24">
         <v>8122423</v>
       </c>
-      <c r="T23" s="30">
+      <c r="T23" s="24">
         <v>582756321.35000002</v>
       </c>
-      <c r="U23" s="30">
+      <c r="U23" s="24">
         <v>257335584.56999999</v>
       </c>
-      <c r="V23" s="30">
+      <c r="V23" s="24">
         <v>465606594.5</v>
       </c>
-      <c r="W23" s="44">
+      <c r="W23" s="34">
         <v>221780300.95999998</v>
       </c>
-      <c r="X23" s="26">
+      <c r="X23" s="20">
         <v>138</v>
       </c>
-      <c r="Y23" s="31">
+      <c r="Y23" s="25">
         <v>1572259016.6900001</v>
       </c>
     </row>

--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8044A788-AEF0-4148-A3A5-3FC4912D7D69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410DFAF-0982-4422-996A-B8052099E6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="COmparativo" sheetId="1" r:id="rId1"/>
     <sheet name="Detallado por Año" sheetId="2" r:id="rId2"/>
+    <sheet name="Detalle Por mes 2020" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>N. Proy.</t>
   </si>
@@ -122,13 +123,67 @@
   </si>
   <si>
     <t>TOTAL N. Proy</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DE LOS CANALES DE RIEGO SECTOR TABLINA ALTA Y BAJA, SECTOR OCCOLLO UNO, TAPAYA BAJA Y ALTA, TAPAYA BAJA RUMI RUMI, CHACCARA Y CHAULLHUA PUQUIO HUMANILLA, DEL CENTRO POBLADO DE  DISTRITO DE ANDAHUAYLAS - PROVINCIA DE ANDAHUAYLAS - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>RECUPERACION DE LOS ECOSISTEMAS DE PAJONAL DE PUNA HÚMEDA, BOFEDAL, BOSQUE RELICTO Y LAGUNAS EN CABECERAS DE CUENCAS EN 7 DISTRITOS DE LAS PROVINCIAS DE COTABAMBAS Y GRAU DEL  DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>RECUPERACION DE LOS ECOSISTEMAS DE PAJONAL DE PUNA HÚMEDA, SECA, BOFEDALES, BOSQUE RELICTO MESOANDINO  Y ALTOANDINO DE LAS UNIDADES HIDROGRÁFICAS DE LOS RÍOS CHALHUANCA Y OCOÑA DE 9 DISTRITOS DE LA PROVINCIA DE AYMARAES - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DE LOS SERVICIOS DE EDUCACION BASICA REGULAR NIVEL SECUNDARIO EN LA I.E. MANUEL VIVANCO ALTAMIRANO DEL  DISTRITO DE ANDAHUAYLAS - PROVINCIA DE ANDAHUAYLAS - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO DEL INSTITUTO DE EDUCACIÓN SUPERIOR TECNOLÓGICO HERMENEGILDO MIRANDA SEGOVIA Y FILIAL JUAN ESPINOZA MEDRANO,  DISTRITO DE ANTABAMBA - PROVINCIA DE ANTABAMBA - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO DEL NIVEL INICIAL CUNA - N°01 Y 02 ANGELITOS DE JESÚS  DISTRITO DE ABANCAY - PROVINCIA DE ABANCAY - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DEL SERVICIO EDUCATIVO DEL NIVEL SECUNDARIO IES LIBERTADORES DE AMERICA  DISTRITO DE CHALHUANCA - PROVINCIA DE AYMARAES - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DE LA PRESTACIÓN DE LOS SERVICIOS DE LA DIRECCIÓN REGIONAL DE PESQUERÍA/DIREPRO EN 22 DISTRITOS DE LAS 7 PROVINCIAS DEL DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DE LA PRODUCCIÓN AGROPECUARIA DE LA CAMPAÑA CHICA DE LAS UNIDADES PRODUCTIVAS FAMILIARES EN EL CONTEXTO DE EMERGENCIA DEBIDO AL COVID 19 EN 5 PROVINCIAS DEL DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>MEJORAMIENTO DE LA PRODUCCIÓN AGROPECUARIA DE LA CAMPAÑA CHICA DE LAS UNIDADES PRODUCTIVAS FAMILIARES EN EL CONTEXTO DE EMERGENCIA DEBIDO AL COVID 19 EN LAS PROVINCIAS DE ANDAHUAYLAS Y CHINCHEROS DEL  DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>CREACION DE UN CENTRO DE ACOGIDA RESIDENCIAL PARA NIÑO,NIÑAS  Y ADOLESCENTES CON DISCAPACIDAD EN EL CENTRO POBLADO DE LAMBRAMA DEL DISTRITO DE LAMBRAMA - PROVINCIA DE ABANCAY - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>CREACION DEL SERVICIO DE TRANSITABILIDAD VEHICULAR Y PEATONAL SOBRE EL RIÓ CHUMBAO, ENTRE LA AVENIDA LOS CEDROS  Y   LA AVENIDA PANAMERICANA  - SECTOR ESCORIAL DEL CENTRO POBLADO POCHCCOTA,  DISTRITO DE ANDAHUAYLAS - PROVINCIA DE ANDAHUAYLAS - DEPARTAMENTO DE APURIMAC</t>
+  </si>
+  <si>
+    <t>ENERO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>FUNCION</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +221,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,8 +301,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -455,11 +540,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -557,6 +651,64 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F3E05F-5694-4388-8299-1D7B635039D5}">
   <dimension ref="A2:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -2266,4 +2418,388 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE9270-1816-4FD8-ACC4-B42AC830CB76}">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="90.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="46">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55">
+        <v>6992948.8600000003</v>
+      </c>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="55">
+        <v>6992948.8600000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+      <c r="B5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="52">
+        <v>6992948.8600000003</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52">
+        <v>6992948.8600000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59">
+        <v>69445951.040000007</v>
+      </c>
+      <c r="G6" s="58">
+        <v>69445951.040000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
+        <v>16348682.699999999</v>
+      </c>
+      <c r="G7" s="52">
+        <v>16348682.699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53">
+        <v>53097268.340000004</v>
+      </c>
+      <c r="G8" s="52">
+        <v>53097268.340000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58">
+        <v>82686984.479999989</v>
+      </c>
+      <c r="D9" s="59">
+        <v>23332921</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="58">
+        <v>106019905.47999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53">
+        <v>23332921</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="52">
+        <v>23332921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="52">
+        <v>40159160.789999999</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="52">
+        <v>40159160.789999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="52">
+        <v>11115996.34</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="52">
+        <v>11115996.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="52">
+        <v>31411827.350000001</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="52">
+        <v>31411827.350000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59">
+        <v>10550344.890000001</v>
+      </c>
+      <c r="F14" s="59">
+        <v>3433062.38</v>
+      </c>
+      <c r="G14" s="58">
+        <v>13983407.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53">
+        <v>3433062.38</v>
+      </c>
+      <c r="G15" s="52">
+        <v>3433062.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53">
+        <v>5814488.8899999997</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="52">
+        <v>5814488.8899999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53">
+        <v>4735856</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="52">
+        <v>4735856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58">
+        <v>19032429.23</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58">
+        <v>19032429.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="52">
+        <v>19032429.23</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="52">
+        <v>19032429.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59">
+        <v>6305659.0800000001</v>
+      </c>
+      <c r="G20" s="58">
+        <v>6305659.0800000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="53">
+        <v>6305659.0800000001</v>
+      </c>
+      <c r="G21" s="52">
+        <v>6305659.0800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="61">
+        <v>108712362.57000001</v>
+      </c>
+      <c r="D22" s="61">
+        <v>23332921</v>
+      </c>
+      <c r="E22" s="61">
+        <v>10550344.890000001</v>
+      </c>
+      <c r="F22" s="61">
+        <v>79184672.5</v>
+      </c>
+      <c r="G22" s="61">
+        <v>221780300.95999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="63">
+        <f t="shared" ref="C23:E23" si="0">COUNT(C21,C19,C15:C17,C10:C13,C7:C8,C5)</f>
+        <v>5</v>
+      </c>
+      <c r="D23" s="63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="63">
+        <f>COUNT(F21,F19,F15:F17,F10:F13,F7:F8,F5)</f>
+        <v>4</v>
+      </c>
+      <c r="G23" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410DFAF-0982-4422-996A-B8052099E6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29473F7-7882-492B-86D3-3BBF525CD270}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="COmparativo" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>TOTAL GENERAL</t>
   </si>
   <si>
-    <t>NUMERO DE PROYECTOS POR AÑO</t>
-  </si>
-  <si>
     <t>TOTAL N. Proy</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>NUMERO DE PROYECTOS VIABILIZADOS POR AÑO</t>
   </si>
 </sst>
 </file>
@@ -622,45 +622,12 @@
     <xf numFmtId="4" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,40 +642,73 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,20 +1026,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F51E77-327E-4E07-9E96-5CEB8AE7D025}">
   <dimension ref="A2:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1088,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>44968149.989999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>103521389.44000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1142,7 +1142,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>9276356.7599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>283307108.25999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1196,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1224,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>35249904</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>74400166.099999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>578610721.28999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>320104957.48999995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>2966681.12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -1396,23 +1396,23 @@
         <v>1471437863.6799998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1428,60 +1428,60 @@
   <dimension ref="A2:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
     <col min="2" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
@@ -1551,10 +1551,10 @@
       <c r="W4" s="30">
         <v>2020</v>
       </c>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="45"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X4" s="58"/>
+      <c r="Y4" s="60"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>201568.42</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>6853016.25</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>51592880.25</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>103521389.44000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>98767</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>9276356.7599999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>295280842.25999993</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>4377552.4000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>1021964.05</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>5113613</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>2837932</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>35249904</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>90477487.989999995</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>590163608.29000008</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>10285383</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>343907641.22999996</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>2966681.12</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
@@ -2424,381 +2424,381 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE9270-1816-4FD8-ACC4-B42AC830CB76}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="90.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="C2" s="64">
         <v>2020</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="F3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55">
+      <c r="B4" s="65"/>
+      <c r="C4" s="43">
         <v>6992948.8600000003</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43">
         <v>6992948.8600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="60" t="s">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="41">
+        <v>6992948.8600000003</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41">
+        <v>6992948.8600000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46">
+        <v>69445951.040000007</v>
+      </c>
+      <c r="G6" s="45">
+        <v>69445951.040000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="52">
-        <v>6992948.8600000003</v>
-      </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52">
-        <v>6992948.8600000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59">
-        <v>69445951.040000007</v>
-      </c>
-      <c r="G6" s="58">
-        <v>69445951.040000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
+        <v>16348682.699999999</v>
+      </c>
+      <c r="G7" s="41">
+        <v>16348682.699999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
-        <v>16348682.699999999</v>
-      </c>
-      <c r="G7" s="52">
-        <v>16348682.699999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42">
+        <v>53097268.340000004</v>
+      </c>
+      <c r="G8" s="41">
+        <v>53097268.340000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="45">
+        <v>82686984.479999989</v>
+      </c>
+      <c r="D9" s="46">
+        <v>23332921</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="45">
+        <v>106019905.47999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53">
-        <v>53097268.340000004</v>
-      </c>
-      <c r="G8" s="52">
-        <v>53097268.340000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58">
-        <v>82686984.479999989</v>
-      </c>
-      <c r="D9" s="59">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42">
         <v>23332921</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58">
-        <v>106019905.47999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41">
+        <v>23332921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53">
+      <c r="C11" s="41">
+        <v>40159160.789999999</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41">
+        <v>40159160.789999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="41">
+        <v>11115996.34</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41">
+        <v>11115996.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="41">
+        <v>31411827.350000001</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41">
+        <v>31411827.350000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="61"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46">
+        <v>10550344.890000001</v>
+      </c>
+      <c r="F14" s="46">
+        <v>3433062.38</v>
+      </c>
+      <c r="G14" s="45">
+        <v>13983407.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42">
+        <v>3433062.38</v>
+      </c>
+      <c r="G15" s="41">
+        <v>3433062.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
+        <v>5814488.8899999997</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41">
+        <v>5814488.8899999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
+        <v>4735856</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41">
+        <v>4735856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="61"/>
+      <c r="C18" s="45">
+        <v>19032429.23</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="45">
+        <v>19032429.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="41">
+        <v>19032429.23</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41">
+        <v>19032429.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46">
+        <v>6305659.0800000001</v>
+      </c>
+      <c r="G20" s="45">
+        <v>6305659.0800000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="42">
+        <v>6305659.0800000001</v>
+      </c>
+      <c r="G21" s="41">
+        <v>6305659.0800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="48">
+        <v>108712362.57000001</v>
+      </c>
+      <c r="D22" s="48">
         <v>23332921</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52">
-        <v>23332921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="52">
-        <v>40159160.789999999</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52">
-        <v>40159160.789999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="52">
-        <v>11115996.34</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52">
-        <v>11115996.34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="52">
-        <v>31411827.350000001</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52">
-        <v>31411827.350000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59">
+      <c r="E22" s="48">
         <v>10550344.890000001</v>
       </c>
-      <c r="F14" s="59">
-        <v>3433062.38</v>
-      </c>
-      <c r="G14" s="58">
-        <v>13983407.27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53">
-        <v>3433062.38</v>
-      </c>
-      <c r="G15" s="52">
-        <v>3433062.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53">
-        <v>5814488.8899999997</v>
-      </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52">
-        <v>5814488.8899999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53">
-        <v>4735856</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52">
-        <v>4735856</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58">
-        <v>19032429.23</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58">
-        <v>19032429.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="52">
-        <v>19032429.23</v>
-      </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52">
-        <v>19032429.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59">
-        <v>6305659.0800000001</v>
-      </c>
-      <c r="G20" s="58">
-        <v>6305659.0800000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="53">
-        <v>6305659.0800000001</v>
-      </c>
-      <c r="G21" s="52">
-        <v>6305659.0800000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="61">
-        <v>108712362.57000001</v>
-      </c>
-      <c r="D22" s="61">
-        <v>23332921</v>
-      </c>
-      <c r="E22" s="61">
-        <v>10550344.890000001</v>
-      </c>
-      <c r="F22" s="61">
+      <c r="F22" s="48">
         <v>79184672.5</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="48">
         <v>221780300.95999998</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="63">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="50">
         <f t="shared" ref="C23:E23" si="0">COUNT(C21,C19,C15:C17,C10:C13,C7:C8,C5)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="50">
         <f>COUNT(F21,F19,F15:F17,F10:F13,F7:F8,F5)</f>
         <v>4</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0410DFAF-0982-4422-996A-B8052099E6EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B8F4B-568F-4D97-873F-58AE097DD0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="COmparativo" sheetId="1" r:id="rId1"/>
     <sheet name="Detallado por Año" sheetId="2" r:id="rId2"/>
     <sheet name="Detalle Por mes 2020" sheetId="5" r:id="rId3"/>
+    <sheet name="Detalle de proyectos PMI por me" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>N. Proy.</t>
   </si>
@@ -177,6 +178,45 @@
   </si>
   <si>
     <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>09/07/2020</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>09/01/2020</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>29/01/2020</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>FECHA DE VIABILIDAD</t>
+  </si>
+  <si>
+    <t>EDUCACION</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>N. PROYECTOS</t>
   </si>
 </sst>
 </file>
@@ -228,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,6 +365,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -553,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -622,45 +692,12 @@
     <xf numFmtId="4" fontId="0" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,40 +712,109 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,36 +1554,36 @@
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39" t="s">
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="42" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="59" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1551,8 +1657,8 @@
       <c r="W4" s="30">
         <v>2020</v>
       </c>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="45"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="60"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -2424,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BE9270-1816-4FD8-ACC4-B42AC830CB76}">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2437,369 +2543,626 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="64">
         <v>2020</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="46"/>
+      <c r="G3" s="64"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55">
+      <c r="B4" s="65"/>
+      <c r="C4" s="43">
         <v>6992948.8600000003</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="55">
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43">
         <v>6992948.8600000003</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="41">
         <v>6992948.8600000003</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41">
         <v>6992948.8600000003</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59">
+      <c r="B6" s="61"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46">
         <v>69445951.040000007</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="45">
         <v>69445951.040000007</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53">
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42">
         <v>16348682.699999999</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="41">
         <v>16348682.699999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53">
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42">
         <v>53097268.340000004</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="41">
         <v>53097268.340000004</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58">
+      <c r="B9" s="61"/>
+      <c r="C9" s="45">
         <v>82686984.479999989</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="46">
         <v>23332921</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="45">
         <v>106019905.47999999</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42">
         <v>23332921</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41">
         <v>23332921</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="52">
+      <c r="C11" s="41">
         <v>40159160.789999999</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41">
         <v>40159160.789999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="41">
         <v>11115996.34</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52">
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41">
         <v>11115996.34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="41">
         <v>31411827.350000001</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52">
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41">
         <v>31411827.350000001</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59">
+      <c r="B14" s="61"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46">
         <v>10550344.890000001</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="46">
         <v>3433062.38</v>
       </c>
-      <c r="G14" s="58">
+      <c r="G14" s="45">
         <v>13983407.27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42">
         <v>3433062.38</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="41">
         <v>3433062.38</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53">
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42">
         <v>5814488.8899999997</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52">
+      <c r="F16" s="42"/>
+      <c r="G16" s="41">
         <v>5814488.8899999997</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53">
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42">
         <v>4735856</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52">
+      <c r="F17" s="42"/>
+      <c r="G17" s="41">
         <v>4735856</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="58">
+      <c r="B18" s="61"/>
+      <c r="C18" s="45">
         <v>19032429.23</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58">
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="45">
         <v>19032429.23</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="41">
         <v>19032429.23</v>
       </c>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41">
         <v>19032429.23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59">
+      <c r="B20" s="61"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46">
         <v>6305659.0800000001</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="45">
         <v>6305659.0800000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="36" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="53">
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="42">
         <v>6305659.0800000001</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="41">
         <v>6305659.0800000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="61">
+      <c r="B22" s="62"/>
+      <c r="C22" s="48">
         <v>108712362.57000001</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="48">
         <v>23332921</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="48">
         <v>10550344.890000001</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="48">
         <v>79184672.5</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22" s="48">
         <v>221780300.95999998</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="63">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="50">
         <f t="shared" ref="C23:E23" si="0">COUNT(C21,C19,C15:C17,C10:C13,C7:C8,C5)</f>
         <v>5</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="50">
         <f>COUNT(F21,F19,F15:F17,F10:F13,F7:F8,F5)</f>
         <v>4</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80809FB0-626B-4A31-85F7-3B381B8BE357}">
+  <dimension ref="A2:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="64">
+        <v>2020</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="75">
+        <v>6992948.8600000003</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="74">
+        <v>53097268.340000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="68"/>
+      <c r="B6" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="74">
+        <v>16348682.699999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="76">
+        <v>40159160.789999999</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="77">
+        <v>31411827.350000001</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="68"/>
+      <c r="B9" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="74">
+        <v>23332921</v>
+      </c>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+      <c r="B10" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="77">
+        <v>11115996.34</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="74">
+        <v>3433062.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="76">
+        <v>19032429.23</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="74">
+        <v>6305659.0800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="73">
+        <f>SUM(D4:D13)</f>
+        <v>108712362.57000001</v>
+      </c>
+      <c r="E14" s="73">
+        <f t="shared" ref="E14:F14" si="0">SUM(E4:E13)</f>
+        <v>23332921</v>
+      </c>
+      <c r="F14" s="73">
+        <f t="shared" si="0"/>
+        <v>79184672.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="70">
+        <f>COUNT(D4:D13)</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="70">
+        <f t="shared" ref="E15:F15" si="1">COUNT(E4:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="70">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F13">
+    <sortCondition ref="A4:A13"/>
+  </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876B8F4B-568F-4D97-873F-58AE097DD0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7552FC41-EBA4-4198-B1AD-483000781979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="COmparativo" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
   <si>
     <t>N. Proy.</t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>N. PROYECTOS</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE PROY. VIALBILIUZADOS POR MESES</t>
   </si>
 </sst>
 </file>
@@ -623,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -735,6 +753,33 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,53 +813,32 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,16 +1160,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1204,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1194,7 +1218,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1214,7 +1238,7 @@
         <v>44968149.989999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1258,7 @@
         <v>103521389.44000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1248,7 +1272,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1292,7 @@
         <v>9276356.7599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1312,7 @@
         <v>283307108.25999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1302,7 +1326,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1340,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1330,7 +1354,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1344,7 +1368,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1364,7 +1388,7 @@
         <v>35249904</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1384,7 +1408,7 @@
         <v>74400166.099999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1428,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1448,7 @@
         <v>578610721.28999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1462,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1458,7 +1482,7 @@
         <v>320104957.48999995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1502,7 @@
         <v>2966681.12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -1502,23 +1526,23 @@
         <v>1471437863.6799998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1537,57 +1561,57 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:25" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:25" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="54" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="57" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="59" t="s">
+      <c r="Y3" s="68" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
@@ -1657,10 +1681,10 @@
       <c r="W4" s="30">
         <v>2020</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="60"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X4" s="67"/>
+      <c r="Y4" s="69"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1697,7 +1721,7 @@
         <v>201568.42</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1746,7 +1770,7 @@
         <v>6853016.25</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -1791,7 +1815,7 @@
         <v>51592880.25</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -1836,7 +1860,7 @@
         <v>103521389.44000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1897,7 @@
         <v>98767</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -1910,7 +1934,7 @@
         <v>9276356.7599999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -1959,7 +1983,7 @@
         <v>295280842.25999993</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -2004,7 +2028,7 @@
         <v>4377552.4000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -2041,7 +2065,7 @@
         <v>1021964.05</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -2090,7 +2114,7 @@
         <v>5113613</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2151,7 @@
         <v>2837932</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -2164,7 +2188,7 @@
         <v>35249904</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -2209,7 +2233,7 @@
         <v>90477487.989999995</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -2246,7 +2270,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2319,7 @@
         <v>590163608.29000008</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -2348,7 +2372,7 @@
         <v>10285383</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2425,7 @@
         <v>343907641.22999996</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>2966681.12</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
@@ -2534,34 +2558,34 @@
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="90.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="71">
         <v>2020</v>
       </c>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64" t="s">
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
@@ -2574,13 +2598,13 @@
       <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="64"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="G3" s="71"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="43">
         <v>6992948.8600000003</v>
       </c>
@@ -2591,7 +2615,7 @@
         <v>6992948.8600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="47" t="s">
         <v>30</v>
@@ -2606,11 +2630,11 @@
         <v>6992948.8600000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="45"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -2621,7 +2645,7 @@
         <v>69445951.040000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="40" t="s">
         <v>31</v>
@@ -2636,7 +2660,7 @@
         <v>16348682.699999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="39"/>
       <c r="B8" s="40" t="s">
         <v>32</v>
@@ -2651,11 +2675,11 @@
         <v>53097268.340000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="45">
         <v>82686984.479999989</v>
       </c>
@@ -2668,7 +2692,7 @@
         <v>106019905.47999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="39"/>
       <c r="B10" s="40" t="s">
         <v>33</v>
@@ -2683,7 +2707,7 @@
         <v>23332921</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
       <c r="B11" s="40" t="s">
         <v>34</v>
@@ -2698,7 +2722,7 @@
         <v>40159160.789999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="39"/>
       <c r="B12" s="40" t="s">
         <v>35</v>
@@ -2713,7 +2737,7 @@
         <v>11115996.34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="39"/>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -2728,11 +2752,11 @@
         <v>31411827.350000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46">
@@ -2745,7 +2769,7 @@
         <v>13983407.27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="39"/>
       <c r="B15" s="40" t="s">
         <v>37</v>
@@ -2760,7 +2784,7 @@
         <v>3433062.38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40" t="s">
         <v>38</v>
@@ -2775,7 +2799,7 @@
         <v>5814488.8899999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="39"/>
       <c r="B17" s="40" t="s">
         <v>39</v>
@@ -2790,11 +2814,11 @@
         <v>4735856</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="45">
         <v>19032429.23</v>
       </c>
@@ -2805,7 +2829,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="40" t="s">
         <v>40</v>
@@ -2820,11 +2844,11 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="45"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -2835,7 +2859,7 @@
         <v>6305659.0800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="36" t="s">
         <v>41</v>
@@ -2850,11 +2874,11 @@
         <v>6305659.0800000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+    <row r="22" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="62"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="48">
         <v>108712362.57000001</v>
       </c>
@@ -2871,9 +2895,9 @@
         <v>221780300.95999998</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="50">
         <f t="shared" ref="C23:E23" si="0">COUNT(C21,C19,C15:C17,C10:C13,C7:C8,C5)</f>
         <v>5</v>
@@ -2894,17 +2918,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2912,41 +2936,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80809FB0-626B-4A31-85F7-3B381B8BE357}">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
-    <col min="2" max="2" width="74.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="71">
         <v>2020</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="66"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="I2" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="37" t="s">
         <v>42</v>
       </c>
@@ -2956,28 +2989,52 @@
       <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I3" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="57">
         <v>6992948.8600000003</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="51" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -2985,13 +3042,16 @@
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
-      <c r="F5" s="74">
+      <c r="F5" s="56">
         <v>53097268.340000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="67" t="s">
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="49" t="s">
@@ -2999,73 +3059,82 @@
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="74">
+      <c r="F6" s="56">
         <v>16348682.699999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="51" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="58">
         <v>40159160.789999999</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
-    </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="68"/>
-      <c r="B8" s="67" t="s">
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="59">
         <v>31411827.350000001</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="67" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="41"/>
-      <c r="E9" s="74">
+      <c r="E9" s="56">
         <v>23332921</v>
       </c>
       <c r="F9" s="41"/>
     </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="67" t="s">
+    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="59">
         <v>11115996.34</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="49" t="s">
@@ -3073,31 +3142,31 @@
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
-      <c r="F11" s="74">
+      <c r="F11" s="56">
         <v>3433062.38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="58">
         <v>19032429.23</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
     </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="51" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -3105,46 +3174,46 @@
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="74">
+      <c r="F13" s="56">
         <v>6305659.0800000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="55">
         <f>SUM(D4:D13)</f>
         <v>108712362.57000001</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="55">
         <f t="shared" ref="E14:F14" si="0">SUM(E4:E13)</f>
         <v>23332921</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="55">
         <f t="shared" si="0"/>
         <v>79184672.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="69" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="53">
         <f>COUNT(D4:D13)</f>
         <v>5</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="53">
         <f t="shared" ref="E15:F15" si="1">COUNT(E4:E13)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="53">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3153,7 +3222,8 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F13">
     <sortCondition ref="A4:A13"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I2:O2"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A5:A6"/>

--- a/Estadistica Proyectos/Reporte Comparativo.xlsx
+++ b/Estadistica Proyectos/Reporte Comparativo.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Estadistica Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Estadistica Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7552FC41-EBA4-4198-B1AD-483000781979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF61D21-3BB7-475F-BA35-BAB3866DABFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{E9FE8147-3657-4424-85BE-3F7634457740}"/>
   </bookViews>
   <sheets>
     <sheet name="COmparativo" sheetId="1" r:id="rId1"/>
     <sheet name="Detallado por Año" sheetId="2" r:id="rId2"/>
     <sheet name="Detalle Por mes 2020" sheetId="5" r:id="rId3"/>
     <sheet name="Detalle de proyectos PMI por me" sheetId="7" r:id="rId4"/>
+    <sheet name="Proyectos por funcion año 2020" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="69">
   <si>
     <t>N. Proy.</t>
   </si>
@@ -219,29 +220,35 @@
     <t>N. PROYECTOS</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>CANTIDAD DE PROY. VIALBILIUZADOS POR MESES</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +292,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -637,11 +672,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -780,6 +852,9 @@
     <xf numFmtId="4" fontId="0" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,18 +888,18 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -834,11 +909,44 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,19 +1265,19 @@
   <dimension ref="A2:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1190,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1312,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1218,7 +1326,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1238,7 +1346,7 @@
         <v>44968149.989999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1366,7 @@
         <v>103521389.44000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1380,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1292,7 +1400,7 @@
         <v>9276356.7599999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
@@ -1312,7 +1420,7 @@
         <v>283307108.25999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1326,7 +1434,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1448,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1354,7 +1462,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -1368,7 +1476,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1496,7 @@
         <v>35249904</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1516,7 @@
         <v>74400166.099999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1536,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1448,7 +1556,7 @@
         <v>578610721.28999996</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1570,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
@@ -1482,7 +1590,7 @@
         <v>320104957.48999995</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
@@ -1502,7 +1610,7 @@
         <v>2966681.12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -1526,23 +1634,23 @@
         <v>1471437863.6799998</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1558,60 +1666,60 @@
   <dimension ref="A2:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A3" sqref="A3:Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="12" width="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" hidden="1" customWidth="1"/>
+    <col min="15" max="19" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="13.44140625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:25" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:25" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="66" t="s">
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="68" t="s">
+      <c r="Y3" s="69" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>25</v>
       </c>
@@ -1681,10 +1789,10 @@
       <c r="W4" s="30">
         <v>2020</v>
       </c>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="69"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X4" s="68"/>
+      <c r="Y4" s="70"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1721,7 +1829,7 @@
         <v>201568.42</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1770,7 +1878,7 @@
         <v>6853016.25</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -1815,7 +1923,7 @@
         <v>51592880.25</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
@@ -1860,7 +1968,7 @@
         <v>103521389.44000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
@@ -1897,7 +2005,7 @@
         <v>98767</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +2042,7 @@
         <v>9276356.7599999998</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +2091,7 @@
         <v>295280842.25999993</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -2028,7 +2136,7 @@
         <v>4377552.4000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
@@ -2065,7 +2173,7 @@
         <v>1021964.05</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +2222,7 @@
         <v>5113613</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -2151,7 +2259,7 @@
         <v>2837932</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -2188,7 +2296,7 @@
         <v>35249904</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2341,7 @@
         <v>90477487.989999995</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2378,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -2319,7 +2427,7 @@
         <v>590163608.29000008</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -2372,7 +2480,7 @@
         <v>10285383</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -2425,7 +2533,7 @@
         <v>343907641.22999996</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -2462,7 +2570,7 @@
         <v>2966681.12</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>27</v>
       </c>
@@ -2555,37 +2663,39 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="90.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="71">
+      <c r="C2" s="74">
         <v>2020</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="37" t="s">
         <v>42</v>
       </c>
@@ -2598,13 +2708,13 @@
       <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="71"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="G3" s="74"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="43">
         <v>6992948.8600000003</v>
       </c>
@@ -2615,7 +2725,7 @@
         <v>6992948.8600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="47" t="s">
         <v>30</v>
@@ -2630,11 +2740,11 @@
         <v>6992948.8600000003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="45"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
@@ -2645,7 +2755,7 @@
         <v>69445951.040000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="39"/>
       <c r="B7" s="40" t="s">
         <v>31</v>
@@ -2660,7 +2770,7 @@
         <v>16348682.699999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="39"/>
       <c r="B8" s="40" t="s">
         <v>32</v>
@@ -2675,11 +2785,11 @@
         <v>53097268.340000004</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="45">
         <v>82686984.479999989</v>
       </c>
@@ -2692,7 +2802,7 @@
         <v>106019905.47999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="39"/>
       <c r="B10" s="40" t="s">
         <v>33</v>
@@ -2707,7 +2817,7 @@
         <v>23332921</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="39"/>
       <c r="B11" s="40" t="s">
         <v>34</v>
@@ -2722,7 +2832,7 @@
         <v>40159160.789999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="39"/>
       <c r="B12" s="40" t="s">
         <v>35</v>
@@ -2737,7 +2847,7 @@
         <v>11115996.34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="39"/>
       <c r="B13" s="40" t="s">
         <v>36</v>
@@ -2752,11 +2862,11 @@
         <v>31411827.350000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46">
@@ -2769,7 +2879,7 @@
         <v>13983407.27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="39"/>
       <c r="B15" s="40" t="s">
         <v>37</v>
@@ -2784,7 +2894,7 @@
         <v>3433062.38</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="40" t="s">
         <v>38</v>
@@ -2799,7 +2909,7 @@
         <v>5814488.8899999997</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="39"/>
       <c r="B17" s="40" t="s">
         <v>39</v>
@@ -2814,11 +2924,11 @@
         <v>4735856</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="45">
         <v>19032429.23</v>
       </c>
@@ -2829,7 +2939,7 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="39"/>
       <c r="B19" s="40" t="s">
         <v>40</v>
@@ -2844,11 +2954,11 @@
         <v>19032429.23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="45"/>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
@@ -2859,7 +2969,7 @@
         <v>6305659.0800000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="36" t="s">
         <v>41</v>
@@ -2874,11 +2984,11 @@
         <v>6305659.0800000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="48">
         <v>108712362.57000001</v>
       </c>
@@ -2895,9 +3005,9 @@
         <v>221780300.95999998</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="73"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="50">
         <f t="shared" ref="C23:E23" si="0">COUNT(C21,C19,C15:C17,C10:C13,C7:C8,C5)</f>
         <v>5</v>
@@ -2918,17 +3028,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B23"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2936,50 +3046,51 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80809FB0-626B-4A31-85F7-3B381B8BE357}">
-  <dimension ref="A2:O15"/>
+  <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="74.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="74">
         <v>2020</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="I2" s="79" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="77"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="37" t="s">
         <v>42</v>
       </c>
@@ -2989,29 +3100,29 @@
       <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="78" t="s">
+      <c r="G3" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="78" t="s">
+      <c r="H3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="78" t="s">
+      <c r="I3" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="78" t="s">
+      <c r="J3" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="K3" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
         <v>6</v>
       </c>
@@ -3026,12 +3137,18 @@
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="G4" s="81">
+        <v>1</v>
+      </c>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+    </row>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="51" t="s">
@@ -3045,12 +3162,18 @@
       <c r="F5" s="56">
         <v>53097268.340000004</v>
       </c>
-      <c r="N5">
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="83">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="77"/>
       <c r="B6" s="51" t="s">
         <v>31</v>
       </c>
@@ -3062,9 +3185,16 @@
       <c r="F6" s="56">
         <v>16348682.699999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="77" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="51" t="s">
@@ -3078,15 +3208,20 @@
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
-      <c r="I7">
+      <c r="G7" s="83">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="83">
+        <v>1</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+    </row>
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
       <c r="B8" s="51" t="s">
         <v>36</v>
       </c>
@@ -3098,12 +3233,16 @@
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
-      <c r="N8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+    </row>
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="77"/>
       <c r="B9" s="51" t="s">
         <v>33</v>
       </c>
@@ -3115,9 +3254,16 @@
         <v>23332921</v>
       </c>
       <c r="F9" s="41"/>
-    </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+    </row>
+    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
       <c r="B10" s="51" t="s">
         <v>35</v>
       </c>
@@ -3129,8 +3275,15 @@
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-    </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="G10" s="83"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+    </row>
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>16</v>
       </c>
@@ -3145,8 +3298,17 @@
       <c r="F11" s="56">
         <v>3433062.38</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>17</v>
       </c>
@@ -3161,8 +3323,17 @@
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
-    </row>
-    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="G12" s="81">
+        <v>1</v>
+      </c>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+    </row>
+    <row r="13" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>20</v>
       </c>
@@ -3177,12 +3348,21 @@
       <c r="F13" s="56">
         <v>6305659.0800000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="75" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="75"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="54" t="s">
         <v>59</v>
       </c>
@@ -3198,10 +3378,38 @@
         <f t="shared" si="0"/>
         <v>79184672.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
+      <c r="G14" s="85">
+        <f>SUM(G4:G13)</f>
+        <v>5</v>
+      </c>
+      <c r="H14" s="85">
+        <f t="shared" ref="H14:M14" si="1">SUM(H4:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="85">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="52" t="s">
         <v>60</v>
       </c>
@@ -3210,20 +3418,42 @@
         <v>5</v>
       </c>
       <c r="E15" s="53">
-        <f t="shared" ref="E15:F15" si="1">COUNT(E4:E13)</f>
+        <f t="shared" ref="E15:F15" si="2">COUNT(E4:E13)</f>
         <v>1</v>
       </c>
       <c r="F15" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:F13">
     <sortCondition ref="A4:A13"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="I2:O2"/>
+  <mergeCells count="29">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G2:M2"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A5:A6"/>
@@ -3231,8 +3461,194 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A11518-EF87-40E4-8AA9-42522A1B041C}">
+  <dimension ref="A2:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="74"/>
+      <c r="B3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="79">
+        <v>1</v>
+      </c>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="79">
+        <v>3</v>
+      </c>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="79">
+        <v>1</v>
+      </c>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="79">
+        <v>1</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="90">
+        <f>SUM(B4:B9)</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="90">
+        <f t="shared" ref="C10:H10" si="0">SUM(C4:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="90">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="90">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>